--- a/samples/excel/excel001.xlsx
+++ b/samples/excel/excel001.xlsx
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -504,6 +504,7 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -687,6 +688,9 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
